--- a/BackTest/2020-01-11 BackTest PAY.xlsx
+++ b/BackTest/2020-01-11 BackTest PAY.xlsx
@@ -6891,14 +6891,20 @@
         <v>45.20983333333324</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>44.48</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +6939,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6961,14 +6971,20 @@
         <v>45.15033333333324</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>43.7</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7019,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7058,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7097,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7136,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7175,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7214,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7253,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7292,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7331,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7311,14 +7363,20 @@
         <v>44.84416666666656</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>44.5</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7346,14 +7404,20 @@
         <v>44.8299999999999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>44.99</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +7445,20 @@
         <v>44.8194999999999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>44.67</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7416,14 +7486,20 @@
         <v>44.78116666666656</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>44.99</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7534,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7573,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +7612,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +7651,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +7690,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +7729,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +7768,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +7807,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +7846,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +7885,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +7924,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +7963,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8002,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8041,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7941,14 +8073,20 @@
         <v>44.1138333333332</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>43.3</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7976,14 +8114,20 @@
         <v>44.0638333333332</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8011,14 +8155,20 @@
         <v>44.02549999999987</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8046,14 +8196,20 @@
         <v>43.97716666666653</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8089,10 +8245,12 @@
       <c r="J220" t="n">
         <v>42.7</v>
       </c>
-      <c r="K220" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8128,12 +8286,10 @@
       <c r="J221" t="n">
         <v>42.7</v>
       </c>
-      <c r="K221" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -8171,12 +8327,10 @@
       <c r="J222" t="n">
         <v>42.7</v>
       </c>
-      <c r="K222" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -8214,10 +8368,12 @@
       <c r="J223" t="n">
         <v>42.7</v>
       </c>
-      <c r="K223" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8245,20 +8401,16 @@
         <v>43.79416666666652</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K224" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -8296,12 +8448,10 @@
       <c r="J225" t="n">
         <v>42.7</v>
       </c>
-      <c r="K225" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -8331,18 +8481,18 @@
         <v>43.72816666666651</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K226" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8370,20 +8520,16 @@
         <v>43.69649999999984</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="K227" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -8413,17 +8559,13 @@
         <v>43.67716666666651</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>42.29</v>
-      </c>
-      <c r="K228" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8462,11 +8604,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>42</v>
-      </c>
-      <c r="K229" t="n">
-        <v>42.7</v>
-      </c>
+        <v>43.44</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8507,9 +8647,7 @@
       <c r="J230" t="n">
         <v>42</v>
       </c>
-      <c r="K230" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,11 +8686,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="K231" t="n">
-        <v>42.7</v>
-      </c>
+        <v>43.43</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8593,9 +8729,7 @@
       <c r="J232" t="n">
         <v>42.8</v>
       </c>
-      <c r="K232" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,11 +8768,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="K233" t="n">
-        <v>42.7</v>
-      </c>
+        <v>44.07</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,11 +8809,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>42.91</v>
-      </c>
-      <c r="K234" t="n">
-        <v>42.7</v>
-      </c>
+        <v>42.5</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8714,17 +8844,13 @@
         <v>43.46116666666651</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K235" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,17 +8883,13 @@
         <v>43.43749999999984</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="K236" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8800,17 +8922,13 @@
         <v>43.40249999999984</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="K237" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8843,17 +8961,13 @@
         <v>43.39066666666651</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="K238" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8886,17 +9000,13 @@
         <v>43.38683333333317</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="K239" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,17 +9039,13 @@
         <v>43.41016666666651</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>44.33</v>
-      </c>
-      <c r="K240" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8972,17 +9078,13 @@
         <v>43.4051666666665</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="K241" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9021,9 +9123,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,9 +9162,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9103,9 +9201,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9144,9 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9185,9 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,9 +9318,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9267,9 +9357,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,9 +9396,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9349,9 +9435,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,9 +9474,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9431,9 +9513,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9472,9 +9552,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9507,17 +9585,13 @@
         <v>43.28116666666651</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="K254" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9550,17 +9624,13 @@
         <v>43.23299999999985</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="K255" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9593,17 +9663,13 @@
         <v>43.20866666666652</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>42.44</v>
-      </c>
-      <c r="K256" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9636,17 +9702,13 @@
         <v>43.17783333333318</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>42.49</v>
-      </c>
-      <c r="K257" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,17 +9741,13 @@
         <v>43.13266666666652</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="K258" t="n">
-        <v>42.7</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9722,25 +9780,19 @@
         <v>43.09433333333319</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>42.37</v>
-      </c>
-      <c r="K259" t="n">
-        <v>42.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9765,22 +9817,14 @@
         <v>43.07866666666653</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>44.05</v>
-      </c>
-      <c r="K260" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9808,22 +9852,14 @@
         <v>43.07349999999986</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="K261" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9851,22 +9887,14 @@
         <v>43.04849999999986</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="K262" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9894,22 +9922,14 @@
         <v>43.04166666666652</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="K263" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9937,22 +9957,14 @@
         <v>43.02483333333319</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>43.38</v>
-      </c>
-      <c r="K264" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9980,22 +9992,14 @@
         <v>43.0048333333332</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="K265" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10023,22 +10027,14 @@
         <v>42.98649999999986</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>43</v>
-      </c>
-      <c r="K266" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10066,22 +10062,14 @@
         <v>42.98599999999986</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>43.09</v>
-      </c>
-      <c r="K267" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10109,22 +10097,14 @@
         <v>42.99066666666653</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="K268" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10152,22 +10132,14 @@
         <v>42.99566666666653</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K269" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10195,22 +10167,14 @@
         <v>43.00083333333319</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K270" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10238,22 +10202,14 @@
         <v>43.02766666666653</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K271" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10281,22 +10237,14 @@
         <v>43.0628333333332</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>44.22</v>
-      </c>
-      <c r="K272" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10330,14 +10278,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10371,14 +10313,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10409,17 +10345,11 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10453,16 +10383,10 @@
         <v>1</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
-        <v>1.018419203747073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -10491,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
@@ -10526,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
@@ -10736,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
@@ -10838,20 +10762,14 @@
         <v>43.21183333333324</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>42.5</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10879,20 +10797,14 @@
         <v>43.18616666666657</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>42.1</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10920,20 +10832,14 @@
         <v>43.18433333333324</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>41.9</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10961,20 +10867,14 @@
         <v>43.15866666666657</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>41.89</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11002,20 +10902,14 @@
         <v>43.1429999999999</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>41.86</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11043,20 +10937,14 @@
         <v>43.1084999999999</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>41.9</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11084,20 +10972,14 @@
         <v>43.09616666666657</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>42</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11125,20 +11007,14 @@
         <v>43.08466666666656</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>42.2</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11166,20 +11042,14 @@
         <v>43.06283333333324</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>42.1</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11207,20 +11077,14 @@
         <v>43.04016666666656</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>41.94</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11248,20 +11112,14 @@
         <v>43.02166666666656</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>41.92</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11289,20 +11147,14 @@
         <v>42.99483333333323</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>41.79</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11330,20 +11182,14 @@
         <v>42.96333333333323</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>41.79</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11371,20 +11217,14 @@
         <v>42.93166666666657</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>42.4</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11412,20 +11252,14 @@
         <v>42.90166666666657</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>41.8</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11453,20 +11287,14 @@
         <v>42.86666666666657</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>41.8</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11494,20 +11322,14 @@
         <v>42.83499999999991</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>42</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11535,20 +11357,14 @@
         <v>42.82399999999991</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>42.8</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11582,12 +11398,12 @@
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>42.77</v>
+        <v>42.84</v>
       </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M305" t="n">

--- a/BackTest/2020-01-11 BackTest PAY.xlsx
+++ b/BackTest/2020-01-11 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N375"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>59544.5428</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>59544.5428</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.41</v>
       </c>
       <c r="J3" t="n">
         <v>41.41</v>
       </c>
-      <c r="K3" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>59544.5428</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>41.41</v>
       </c>
       <c r="J4" t="n">
         <v>41.41</v>
       </c>
-      <c r="K4" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>53410.5428</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.41</v>
       </c>
       <c r="J5" t="n">
         <v>41.41</v>
       </c>
-      <c r="K5" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>53410.5428</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>41.1</v>
       </c>
       <c r="J6" t="n">
         <v>41.1</v>
       </c>
-      <c r="K6" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>59647.5428</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.1</v>
       </c>
       <c r="J7" t="n">
         <v>41.1</v>
       </c>
-      <c r="K7" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>69472.452</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.49</v>
       </c>
       <c r="J8" t="n">
-        <v>41.49</v>
-      </c>
-      <c r="K8" t="n">
         <v>41.1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +722,23 @@
         <v>101559.7868</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>41.69</v>
       </c>
       <c r="J9" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="K9" t="n">
         <v>41.1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +763,23 @@
         <v>189415.1264</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J10" t="n">
-        <v>42</v>
-      </c>
-      <c r="K10" t="n">
         <v>41.1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +804,23 @@
         <v>-86005.38017681928</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="J11" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K11" t="n">
         <v>41.1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,24 +845,23 @@
         <v>-5781.689917654396</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J12" t="n">
         <v>41.1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,22 +888,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>41.1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,22 +927,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>41.1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,22 +966,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>41.1</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1050,22 +1005,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>41.1</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,22 +1044,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>41.1</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1134,22 +1083,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>41.1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1174,24 +1120,23 @@
         <v>-5937.015187655212</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="J19" t="n">
         <v>41.1</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1218,22 +1163,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>41.1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1260,22 +1202,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>41.1</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1302,22 +1241,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>41.1</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1344,22 +1280,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>41.1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,22 +1319,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>41.1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,22 +1358,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>41.1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1470,22 +1397,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>41.1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1512,22 +1436,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>41.1</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1554,22 +1475,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>41.1</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1596,22 +1514,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>41.1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1638,22 +1553,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>41.1</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1680,22 +1592,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>41.1</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1722,22 +1631,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>41.1</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1762,24 +1668,23 @@
         <v>1147177.21338164</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>41.1</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L33" t="n">
+        <v>1.246094890510949</v>
+      </c>
       <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>1.007542579075426</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1804,24 +1709,15 @@
         <v>1178597.42408164</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1848,22 +1744,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1890,22 +1777,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1932,22 +1810,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1974,22 +1843,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2016,22 +1876,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2058,22 +1909,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2100,22 +1942,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2142,22 +1975,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,22 +2008,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,22 +2041,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2268,22 +2074,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2310,22 +2107,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2352,22 +2140,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2394,22 +2173,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2436,22 +2206,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2478,22 +2239,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2520,22 +2272,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2562,22 +2305,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2602,24 +2336,15 @@
         <v>1470127.384620575</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2644,26 +2369,15 @@
         <v>1387764.100520575</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1.212761557177616</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.007542579075426</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2688,18 +2402,15 @@
         <v>1432803.706620575</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2724,18 +2435,15 @@
         <v>1408446.388120575</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2760,18 +2468,15 @@
         <v>1380150.518320575</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2798,16 +2503,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2834,16 +2536,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2870,16 +2569,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2906,16 +2602,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2942,16 +2635,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2978,16 +2668,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3014,16 +2701,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3050,16 +2734,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3084,18 +2765,15 @@
         <v>1270014.351220575</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3122,16 +2800,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3156,18 +2831,15 @@
         <v>1281534.558220575</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3194,16 +2866,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3230,16 +2899,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3266,16 +2932,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3300,18 +2963,15 @@
         <v>1277091.068120575</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3338,16 +2998,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3372,18 +3029,15 @@
         <v>1293593.128020575</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3408,18 +3062,15 @@
         <v>1282099.556420575</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3444,18 +3095,15 @@
         <v>1273913.201520575</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3482,16 +3130,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3518,16 +3163,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3554,16 +3196,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3590,16 +3229,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3626,16 +3262,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3660,18 +3293,15 @@
         <v>1372573.630278966</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3698,16 +3328,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3734,16 +3361,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3770,16 +3394,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3806,16 +3427,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3842,16 +3460,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3878,16 +3493,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3914,16 +3526,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3950,16 +3559,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3986,16 +3592,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4022,16 +3625,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4058,16 +3658,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4094,16 +3691,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4128,18 +3722,15 @@
         <v>1259634.784221934</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4166,16 +3757,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4202,16 +3790,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4238,16 +3823,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4272,18 +3854,15 @@
         <v>1192853.546621934</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4308,18 +3887,15 @@
         <v>1106444.433421934</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4346,16 +3922,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4382,16 +3955,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4418,16 +3988,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4452,18 +4019,15 @@
         <v>1224755.499721934</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4490,16 +4054,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4526,16 +4087,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4562,16 +4120,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4598,16 +4153,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4634,16 +4186,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4670,16 +4219,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4706,16 +4252,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4742,16 +4285,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4778,16 +4318,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4814,16 +4351,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4850,16 +4384,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4884,18 +4415,15 @@
         <v>1251643.204821934</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4920,18 +4448,15 @@
         <v>1242999.604621934</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4956,18 +4481,15 @@
         <v>1243379.336121934</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4994,16 +4516,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5030,16 +4549,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5064,18 +4580,15 @@
         <v>1230076.083321934</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5102,16 +4615,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5138,16 +4648,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5174,16 +4681,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5210,16 +4714,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5246,16 +4747,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5282,16 +4780,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5316,18 +4811,15 @@
         <v>1194235.543421934</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5352,18 +4844,15 @@
         <v>1159875.543421934</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5388,18 +4877,15 @@
         <v>1159875.543421934</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5426,16 +4912,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5462,16 +4945,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5498,16 +4978,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5534,16 +5011,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5570,16 +5044,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5604,18 +5075,15 @@
         <v>1118090.509721934</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5640,18 +5108,15 @@
         <v>1116418.509721934</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5676,18 +5141,15 @@
         <v>1120488.189921934</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5712,18 +5174,15 @@
         <v>1088475.848821934</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5748,18 +5207,15 @@
         <v>1092917.348821934</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5786,16 +5242,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5822,16 +5275,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5858,16 +5308,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5894,16 +5341,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5930,16 +5374,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5966,16 +5407,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6002,16 +5440,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6038,16 +5473,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6074,16 +5506,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6110,16 +5539,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6146,16 +5572,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6182,16 +5605,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6218,16 +5638,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6254,16 +5671,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6290,16 +5704,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6326,16 +5737,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6362,16 +5770,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6396,18 +5801,15 @@
         <v>1052607.244721934</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6432,18 +5834,15 @@
         <v>1028396.649921934</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6468,18 +5867,15 @@
         <v>1011536.086321934</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6504,18 +5900,15 @@
         <v>957193.5367219344</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6542,16 +5935,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6578,16 +5968,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6614,16 +6001,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6650,16 +6034,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6686,16 +6067,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6720,18 +6098,15 @@
         <v>955374.4877219344</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6758,16 +6133,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6794,16 +6166,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6830,16 +6199,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6866,16 +6232,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6902,16 +6265,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6936,18 +6296,15 @@
         <v>956025.8659219345</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6972,18 +6329,15 @@
         <v>955725.8659219345</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7008,18 +6362,15 @@
         <v>981512.3635219345</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7044,18 +6395,15 @@
         <v>981512.3635219345</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7080,18 +6428,15 @@
         <v>969596.0535219344</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7116,18 +6461,15 @@
         <v>969596.0535219344</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7152,18 +6494,15 @@
         <v>943752.8597219344</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7190,16 +6529,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7226,16 +6562,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7262,16 +6595,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7296,18 +6626,15 @@
         <v>957017.9224219344</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7334,16 +6661,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7370,16 +6694,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7406,16 +6727,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7440,18 +6758,15 @@
         <v>954606.5852219345</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7478,16 +6793,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7514,16 +6826,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7548,18 +6857,15 @@
         <v>939770.5974219345</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7584,18 +6890,15 @@
         <v>946012.2671219344</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7620,18 +6923,15 @@
         <v>920429.6363219344</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7656,18 +6956,15 @@
         <v>922517.5663219345</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7694,16 +6991,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7728,18 +7022,15 @@
         <v>914116.4262219344</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7766,16 +7057,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7800,18 +7088,15 @@
         <v>909388.2013219343</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7836,18 +7121,15 @@
         <v>909142.6544219344</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7872,18 +7154,15 @@
         <v>910542.3687219344</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7908,18 +7187,15 @@
         <v>910578.3687219344</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7944,18 +7220,15 @@
         <v>910578.3687219344</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7982,16 +7255,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8016,18 +7286,15 @@
         <v>853383.5572219344</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8052,18 +7319,15 @@
         <v>857634.4384219344</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8088,18 +7352,15 @@
         <v>857634.4384219344</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8124,18 +7385,15 @@
         <v>857634.4384219344</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8160,18 +7418,15 @@
         <v>862959.0646219344</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8196,18 +7451,15 @@
         <v>897653.3149219344</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8232,18 +7484,15 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8268,18 +7517,15 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8304,18 +7550,15 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8340,18 +7583,15 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8376,18 +7616,15 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8412,18 +7649,15 @@
         <v>853092.1763219343</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8448,18 +7682,15 @@
         <v>853092.1763219343</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8484,18 +7715,15 @@
         <v>722491.0252219343</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8520,18 +7748,15 @@
         <v>715836.4220219343</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8556,18 +7781,15 @@
         <v>716167.4220219343</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8592,18 +7814,15 @@
         <v>714167.4220219343</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8628,18 +7847,15 @@
         <v>785897.2489219343</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8664,18 +7880,15 @@
         <v>787356.2489219343</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8700,18 +7913,15 @@
         <v>752956.5480219342</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8736,18 +7946,15 @@
         <v>724248.0922219342</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8774,16 +7981,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8810,16 +8014,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8846,16 +8047,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8882,16 +8080,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8918,16 +8113,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8954,16 +8146,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8990,16 +8179,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9026,16 +8212,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9062,16 +8245,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9096,18 +8276,15 @@
         <v>797939.8383219343</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9132,18 +8309,15 @@
         <v>797829.0383219343</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9168,18 +8342,15 @@
         <v>793829.0383219343</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9204,18 +8375,15 @@
         <v>869439.6155219343</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9242,16 +8410,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9278,16 +8443,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9314,16 +8476,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9350,16 +8509,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9386,16 +8542,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9422,16 +8575,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9458,16 +8608,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9494,16 +8641,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9530,16 +8674,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9566,16 +8707,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9602,16 +8740,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9638,16 +8773,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9674,16 +8806,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9710,16 +8839,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9746,16 +8872,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9782,16 +8905,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9818,16 +8938,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9854,16 +8971,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9890,16 +9004,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9926,16 +9037,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9962,16 +9070,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9998,16 +9103,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10034,16 +9136,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10070,16 +9169,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10106,16 +9202,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10142,16 +9235,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10178,16 +9268,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10214,16 +9301,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10250,16 +9334,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10286,16 +9367,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10322,16 +9400,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10358,16 +9433,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10394,16 +9466,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10430,16 +9499,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10466,16 +9532,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10502,16 +9565,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10538,16 +9598,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10574,16 +9631,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10610,16 +9664,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10646,16 +9697,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10682,16 +9730,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10718,16 +9763,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10754,16 +9796,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10790,16 +9829,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10826,16 +9862,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10862,16 +9895,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10898,16 +9928,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10934,16 +9961,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10970,16 +9994,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11006,16 +10027,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11042,16 +10060,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11078,16 +10093,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11114,16 +10126,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11150,16 +10159,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11186,16 +10192,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11222,16 +10225,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11258,16 +10258,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11294,16 +10291,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11330,16 +10324,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11366,16 +10357,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11402,16 +10390,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11438,16 +10423,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11474,16 +10456,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11510,16 +10489,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11546,16 +10522,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11582,16 +10555,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11618,16 +10588,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11654,16 +10621,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11690,16 +10654,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11726,16 +10687,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11762,16 +10720,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11798,16 +10753,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11834,16 +10786,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11870,16 +10819,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11906,16 +10852,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11942,16 +10885,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11978,16 +10918,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12014,16 +10951,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12050,16 +10984,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12086,16 +11017,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12122,16 +11050,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12158,16 +11083,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12194,16 +11116,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12230,16 +11149,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12266,16 +11182,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12302,16 +11215,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12338,16 +11248,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12374,16 +11281,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12410,16 +11314,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12446,16 +11347,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12482,16 +11380,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12518,16 +11413,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12554,16 +11446,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12590,16 +11479,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12626,16 +11512,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12662,16 +11545,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12698,16 +11578,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12734,16 +11611,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12770,16 +11644,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12806,16 +11677,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12842,16 +11710,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12878,16 +11743,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12914,16 +11776,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12950,16 +11809,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12986,16 +11842,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13022,16 +11875,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13058,16 +11908,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13094,16 +11941,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13130,16 +11974,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13166,16 +12007,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13202,16 +12040,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13238,16 +12073,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13274,16 +12106,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13310,16 +12139,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13346,16 +12172,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13382,16 +12205,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13418,16 +12238,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13454,16 +12271,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13490,16 +12304,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13526,16 +12337,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13562,16 +12370,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13598,16 +12403,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13634,16 +12436,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13670,16 +12469,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13706,16 +12502,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13742,16 +12535,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13778,16 +12568,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13814,16 +12601,13 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13850,16 +12634,13 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13886,16 +12667,13 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13922,16 +12700,13 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -13958,16 +12733,13 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -13994,16 +12766,13 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14030,16 +12799,13 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14066,16 +12832,13 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14102,16 +12865,13 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14138,16 +12898,13 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14174,16 +12931,13 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14210,18 +12964,15 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest PAY.xlsx
+++ b/BackTest/2020-01-11 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>59544.5428</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>59544.5428</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>41.41</v>
@@ -521,7 +521,7 @@
         <v>59544.5428</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>41.41</v>
@@ -562,7 +562,7 @@
         <v>53410.5428</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>41.41</v>
@@ -603,7 +603,7 @@
         <v>53410.5428</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>41.1</v>
@@ -640,7 +640,7 @@
         <v>59647.5428</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>41.1</v>
@@ -681,7 +681,7 @@
         <v>69472.452</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>41.49</v>
@@ -722,7 +722,7 @@
         <v>101559.7868</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>41.69</v>
@@ -763,7 +763,7 @@
         <v>189415.1264</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>42</v>
@@ -804,7 +804,7 @@
         <v>-86005.38017681928</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>43.2</v>
@@ -845,11 +845,9 @@
         <v>-5781.689917654396</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>41.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>41.1</v>
       </c>
@@ -1120,11 +1118,9 @@
         <v>-5937.015187655212</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>46.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>41.1</v>
       </c>
@@ -1668,7 +1664,7 @@
         <v>1147177.21338164</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
@@ -1676,15 +1672,13 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.246094890510949</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.007542579075426</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1709,11 +1703,17 @@
         <v>1178597.42408164</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1745,8 +1745,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1778,8 +1784,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1811,8 +1823,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1844,8 +1862,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1877,8 +1901,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1910,8 +1940,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1943,8 +1979,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1976,8 +2018,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2009,8 +2057,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2042,8 +2096,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2075,8 +2135,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2108,8 +2174,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2141,8 +2213,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2174,8 +2252,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2291,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2240,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2273,8 +2369,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2306,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2336,11 +2444,17 @@
         <v>1470127.384620575</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2369,11 +2483,17 @@
         <v>1387764.100520575</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2402,11 +2522,17 @@
         <v>1432803.706620575</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2435,11 +2561,17 @@
         <v>1408446.388120575</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2468,11 +2600,17 @@
         <v>1380150.518320575</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2504,8 +2642,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2537,8 +2681,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2570,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2603,8 +2759,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2636,8 +2798,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2669,8 +2837,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2702,8 +2876,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2735,8 +2915,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2765,11 +2951,17 @@
         <v>1270014.351220575</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2801,8 +2993,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2831,11 +3029,17 @@
         <v>1281534.558220575</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2867,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2900,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2933,8 +3149,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2963,15 +3185,23 @@
         <v>1277091.068120575</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>1.218844282238443</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.007542579075426</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2996,7 +3226,7 @@
         <v>1266045.524620575</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3029,7 +3259,7 @@
         <v>1293593.128020575</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3062,7 +3292,7 @@
         <v>1282099.556420575</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3095,7 +3325,7 @@
         <v>1273913.201520575</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3128,7 +3358,7 @@
         <v>1282477.660520575</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3161,7 +3391,7 @@
         <v>1251350.879120575</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3194,7 +3424,7 @@
         <v>1333999.500078966</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3227,7 +3457,7 @@
         <v>1333952.500078966</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3260,7 +3490,7 @@
         <v>1371304.389678966</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3293,7 +3523,7 @@
         <v>1372573.630278966</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3326,7 +3556,7 @@
         <v>1379868.485678966</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3359,7 +3589,7 @@
         <v>1345963.002378966</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3557,7 +3787,7 @@
         <v>1312569.244611862</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3590,7 +3820,7 @@
         <v>1312569.244611862</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3623,7 +3853,7 @@
         <v>1290713.332611862</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3656,7 +3886,7 @@
         <v>1218154.719921934</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3689,7 +3919,7 @@
         <v>1260536.784221934</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3722,7 +3952,7 @@
         <v>1259634.784221934</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3755,7 +3985,7 @@
         <v>1242284.001821934</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3788,7 +4018,7 @@
         <v>1202704.809721934</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3821,7 +4051,7 @@
         <v>1201759.526621934</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3854,7 +4084,7 @@
         <v>1192853.546621934</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3887,7 +4117,7 @@
         <v>1106444.433421934</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3920,7 +4150,7 @@
         <v>1199693.657921934</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3953,7 +4183,7 @@
         <v>1209410.607921934</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3986,7 +4216,7 @@
         <v>1224960.754321934</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4019,7 +4249,7 @@
         <v>1224755.499721934</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4052,7 +4282,7 @@
         <v>1205255.564921934</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4085,7 +4315,7 @@
         <v>1194448.035821934</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4118,7 +4348,7 @@
         <v>1197041.035821934</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4151,7 +4381,7 @@
         <v>1191176.425821934</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4184,7 +4414,7 @@
         <v>1187276.176621934</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4217,7 +4447,7 @@
         <v>1197563.376621934</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4250,7 +4480,7 @@
         <v>1206504.376621934</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4283,7 +4513,7 @@
         <v>1223908.717321934</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4316,7 +4546,7 @@
         <v>1239580.372721934</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4349,7 +4579,7 @@
         <v>1211600.903921934</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4382,7 +4612,7 @@
         <v>1245490.740121934</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4415,7 +4645,7 @@
         <v>1251643.204821934</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4448,7 +4678,7 @@
         <v>1242999.604621934</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4481,7 +4711,7 @@
         <v>1243379.336121934</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4514,7 +4744,7 @@
         <v>1226971.213721934</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4547,7 +4777,7 @@
         <v>1243363.213721934</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4580,7 +4810,7 @@
         <v>1230076.083321934</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4613,7 +4843,7 @@
         <v>1252032.547421934</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4646,7 +4876,7 @@
         <v>1252032.547421934</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4679,7 +4909,7 @@
         <v>1252032.547421934</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4712,7 +4942,7 @@
         <v>1239361.397221934</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4745,7 +4975,7 @@
         <v>1240982.315921934</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4778,7 +5008,7 @@
         <v>1233494.662021934</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4811,7 +5041,7 @@
         <v>1194235.543421934</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4844,7 +5074,7 @@
         <v>1159875.543421934</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4877,7 +5107,7 @@
         <v>1159875.543421934</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4910,7 +5140,7 @@
         <v>1161424.475921934</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4976,7 +5206,7 @@
         <v>1149579.557121934</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5075,7 +5305,7 @@
         <v>1118090.509721934</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5108,7 +5338,7 @@
         <v>1116418.509721934</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5141,7 +5371,7 @@
         <v>1120488.189921934</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5174,7 +5404,7 @@
         <v>1088475.848821934</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5207,7 +5437,7 @@
         <v>1092917.348821934</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5801,7 +6031,7 @@
         <v>1052607.244721934</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5834,7 +6064,7 @@
         <v>1028396.649921934</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5867,7 +6097,7 @@
         <v>1011536.086321934</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5900,7 +6130,7 @@
         <v>957193.5367219344</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6098,7 +6328,7 @@
         <v>955374.4877219344</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6296,7 +6526,7 @@
         <v>956025.8659219345</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6329,7 +6559,7 @@
         <v>955725.8659219345</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6362,7 +6592,7 @@
         <v>981512.3635219345</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6395,7 +6625,7 @@
         <v>981512.3635219345</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6428,7 +6658,7 @@
         <v>969596.0535219344</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6461,7 +6691,7 @@
         <v>969596.0535219344</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6494,7 +6724,7 @@
         <v>943752.8597219344</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6626,7 +6856,7 @@
         <v>957017.9224219344</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6758,7 +6988,7 @@
         <v>954606.5852219345</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6857,7 +7087,7 @@
         <v>939770.5974219345</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6890,7 +7120,7 @@
         <v>946012.2671219344</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6923,7 +7153,7 @@
         <v>920429.6363219344</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6956,7 +7186,7 @@
         <v>922517.5663219345</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7022,7 +7252,7 @@
         <v>914116.4262219344</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7088,7 +7318,7 @@
         <v>909388.2013219343</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7121,7 +7351,7 @@
         <v>909142.6544219344</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7154,7 +7384,7 @@
         <v>910542.3687219344</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7187,7 +7417,7 @@
         <v>910578.3687219344</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7220,7 +7450,7 @@
         <v>910578.3687219344</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7286,7 +7516,7 @@
         <v>853383.5572219344</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7319,7 +7549,7 @@
         <v>857634.4384219344</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7352,7 +7582,7 @@
         <v>857634.4384219344</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7385,7 +7615,7 @@
         <v>857634.4384219344</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7418,7 +7648,7 @@
         <v>862959.0646219344</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7451,7 +7681,7 @@
         <v>897653.3149219344</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7484,7 +7714,7 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7517,7 +7747,7 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7550,7 +7780,7 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7583,7 +7813,7 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7616,7 +7846,7 @@
         <v>873527.9696219343</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7649,7 +7879,7 @@
         <v>853092.1763219343</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7682,7 +7912,7 @@
         <v>853092.1763219343</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7715,7 +7945,7 @@
         <v>722491.0252219343</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7748,7 +7978,7 @@
         <v>715836.4220219343</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7781,7 +8011,7 @@
         <v>716167.4220219343</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7814,7 +8044,7 @@
         <v>714167.4220219343</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7847,7 +8077,7 @@
         <v>785897.2489219343</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7880,7 +8110,7 @@
         <v>787356.2489219343</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7913,7 +8143,7 @@
         <v>752956.5480219342</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7946,7 +8176,7 @@
         <v>724248.0922219342</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8276,7 +8506,7 @@
         <v>797939.8383219343</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8309,7 +8539,7 @@
         <v>797829.0383219343</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8342,7 +8572,7 @@
         <v>793829.0383219343</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8375,7 +8605,7 @@
         <v>869439.6155219343</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -12973,6 +13203,6 @@
       <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest PAY.xlsx
+++ b/BackTest/2020-01-11 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -804,11 +804,9 @@
         <v>-86005.38017681928</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>41.1</v>
       </c>
@@ -1820,7 +1818,7 @@
         <v>1155619.127888979</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
@@ -1828,13 +1826,15 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>1.306435523114355</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.007542579075426</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1862,14 +1862,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1898,17 +1892,11 @@
         <v>1049883.86349178</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1940,14 +1928,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1976,17 +1958,11 @@
         <v>1028994.04769178</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2018,14 +1994,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2054,17 +2024,11 @@
         <v>988041.3938917802</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2093,17 +2057,11 @@
         <v>1075174.74909178</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2132,17 +2090,11 @@
         <v>1231461.04829178</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2171,17 +2123,11 @@
         <v>1231461.04829178</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2210,17 +2156,11 @@
         <v>1286328.246309148</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2249,17 +2189,11 @@
         <v>1201914.39666174</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2288,17 +2222,11 @@
         <v>1256279.774791872</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2327,17 +2255,11 @@
         <v>1437782.588326901</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2291,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +2324,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2447,14 +2357,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2486,14 +2390,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2525,14 +2423,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2564,14 +2456,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2603,14 +2489,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2639,17 +2519,11 @@
         <v>1345452.803920575</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2678,17 +2552,11 @@
         <v>1342838.543120575</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2717,17 +2585,11 @@
         <v>1154334.174520575</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2756,17 +2618,11 @@
         <v>1153007.824520575</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2795,17 +2651,11 @@
         <v>1226620.430420575</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2837,14 +2687,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2720,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2915,14 +2753,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2954,14 +2786,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2819,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2852,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2885,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2918,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +2951,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3185,23 +2981,15 @@
         <v>1277091.068120575</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>1.218844282238443</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.007542579075426</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3226,7 +3014,7 @@
         <v>1266045.524620575</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3259,7 +3047,7 @@
         <v>1293593.128020575</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3292,7 +3080,7 @@
         <v>1282099.556420575</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3325,7 +3113,7 @@
         <v>1273913.201520575</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3358,7 +3146,7 @@
         <v>1282477.660520575</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3391,7 +3179,7 @@
         <v>1251350.879120575</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3424,7 +3212,7 @@
         <v>1333999.500078966</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3457,7 +3245,7 @@
         <v>1333952.500078966</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3490,7 +3278,7 @@
         <v>1371304.389678966</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3523,7 +3311,7 @@
         <v>1372573.630278966</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3556,7 +3344,7 @@
         <v>1379868.485678966</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3589,7 +3377,7 @@
         <v>1345963.002378966</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3787,7 +3575,7 @@
         <v>1312569.244611862</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3820,7 +3608,7 @@
         <v>1312569.244611862</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3853,7 +3641,7 @@
         <v>1290713.332611862</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3886,7 +3674,7 @@
         <v>1218154.719921934</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3919,7 +3707,7 @@
         <v>1260536.784221934</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3952,7 +3740,7 @@
         <v>1259634.784221934</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3985,7 +3773,7 @@
         <v>1242284.001821934</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4018,7 +3806,7 @@
         <v>1202704.809721934</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4051,7 +3839,7 @@
         <v>1201759.526621934</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4084,7 +3872,7 @@
         <v>1192853.546621934</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4117,7 +3905,7 @@
         <v>1106444.433421934</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4150,7 +3938,7 @@
         <v>1199693.657921934</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4183,7 +3971,7 @@
         <v>1209410.607921934</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4216,7 +4004,7 @@
         <v>1224960.754321934</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4249,7 +4037,7 @@
         <v>1224755.499721934</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4282,7 +4070,7 @@
         <v>1205255.564921934</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4315,7 +4103,7 @@
         <v>1194448.035821934</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4348,7 +4136,7 @@
         <v>1197041.035821934</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4381,7 +4169,7 @@
         <v>1191176.425821934</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4414,7 +4202,7 @@
         <v>1187276.176621934</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4447,7 +4235,7 @@
         <v>1197563.376621934</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4480,7 +4268,7 @@
         <v>1206504.376621934</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4513,7 +4301,7 @@
         <v>1223908.717321934</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4546,7 +4334,7 @@
         <v>1239580.372721934</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4579,7 +4367,7 @@
         <v>1211600.903921934</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4612,7 +4400,7 @@
         <v>1245490.740121934</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4645,7 +4433,7 @@
         <v>1251643.204821934</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4678,7 +4466,7 @@
         <v>1242999.604621934</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4711,7 +4499,7 @@
         <v>1243379.336121934</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4744,7 +4532,7 @@
         <v>1226971.213721934</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4777,7 +4565,7 @@
         <v>1243363.213721934</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4810,7 +4598,7 @@
         <v>1230076.083321934</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4843,7 +4631,7 @@
         <v>1252032.547421934</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4876,7 +4664,7 @@
         <v>1252032.547421934</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4909,7 +4697,7 @@
         <v>1252032.547421934</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4942,7 +4730,7 @@
         <v>1239361.397221934</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4975,7 +4763,7 @@
         <v>1240982.315921934</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5008,7 +4796,7 @@
         <v>1233494.662021934</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5041,7 +4829,7 @@
         <v>1194235.543421934</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5074,7 +4862,7 @@
         <v>1159875.543421934</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5107,7 +4895,7 @@
         <v>1159875.543421934</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5140,7 +4928,7 @@
         <v>1161424.475921934</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5206,7 +4994,7 @@
         <v>1149579.557121934</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -13203,6 +12991,6 @@
       <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest PAY.xlsx
+++ b/BackTest/2020-01-11 BackTest PAY.xlsx
@@ -804,9 +804,11 @@
         <v>-86005.38017681928</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J11" t="n">
         <v>41.1</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>1155619.127888979</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
@@ -1826,15 +1828,13 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.306435523114355</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.007542579075426</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1862,8 +1862,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1892,11 +1898,17 @@
         <v>1049883.86349178</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1928,8 +1940,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1958,11 +1976,17 @@
         <v>1028994.04769178</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1994,8 +2018,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2024,11 +2054,17 @@
         <v>988041.3938917802</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2057,11 +2093,17 @@
         <v>1075174.74909178</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2090,11 +2132,17 @@
         <v>1231461.04829178</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2123,11 +2171,17 @@
         <v>1231461.04829178</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2156,11 +2210,17 @@
         <v>1286328.246309148</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2189,11 +2249,17 @@
         <v>1201914.39666174</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2222,11 +2288,17 @@
         <v>1256279.774791872</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2255,11 +2327,17 @@
         <v>1437782.588326901</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2291,8 +2369,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2321,15 +2405,23 @@
         <v>1470127.384620575</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>1.34147201946472</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.007542579075426</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2354,7 +2446,7 @@
         <v>1470127.384620575</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2387,7 +2479,7 @@
         <v>1387764.100520575</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2420,7 +2512,7 @@
         <v>1432803.706620575</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2552,7 +2644,7 @@
         <v>1342838.543120575</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2585,7 +2677,7 @@
         <v>1154334.174520575</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2618,7 +2710,7 @@
         <v>1153007.824520575</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2651,7 +2743,7 @@
         <v>1226620.430420575</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2783,7 +2875,7 @@
         <v>1270014.351220575</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2816,7 +2908,7 @@
         <v>1268529.731220575</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2849,7 +2941,7 @@
         <v>1281534.558220575</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2915,7 +3007,7 @@
         <v>1277091.068120575</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2981,7 +3073,7 @@
         <v>1277091.068120575</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3047,7 +3139,7 @@
         <v>1293593.128020575</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3080,7 +3172,7 @@
         <v>1282099.556420575</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3113,7 +3205,7 @@
         <v>1273913.201520575</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3179,7 +3271,7 @@
         <v>1251350.879120575</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3212,7 +3304,7 @@
         <v>1333999.500078966</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3245,7 +3337,7 @@
         <v>1333952.500078966</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3311,7 +3403,7 @@
         <v>1372573.630278966</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3344,7 +3436,7 @@
         <v>1379868.485678966</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3377,7 +3469,7 @@
         <v>1345963.002378966</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
